--- a/Tabela/Cabo Frio/Cabo Frio-3.xlsx
+++ b/Tabela/Cabo Frio/Cabo Frio-3.xlsx
@@ -14,336 +14,399 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="131">
+  <si>
+    <t>R$ 600.000</t>
+  </si>
   <si>
     <t>Mensagem</t>
   </si>
   <si>
-    <t>O bairro oferece a comodidade de morar próximo...</t>
+    <t>Lojas comerciais de 55 a 85m² na melhor localização de Jardim Camburi</t>
   </si>
   <si>
     <t>super destaque</t>
   </si>
   <si>
+    <t>R$ 215.000</t>
+  </si>
+  <si>
     <t>destaque</t>
   </si>
   <si>
-    <t>R$ 150.000</t>
+    <t>R$ 270.000</t>
+  </si>
+  <si>
+    <t>R$ 470.000</t>
+  </si>
+  <si>
+    <t>R$ 180.000</t>
+  </si>
+  <si>
+    <t>R$ 160.000</t>
+  </si>
+  <si>
+    <t>R$ 380.000</t>
+  </si>
+  <si>
+    <t>R$ 400.000</t>
+  </si>
+  <si>
+    <t>R$ 150.900</t>
+  </si>
+  <si>
+    <t>R$ 170.000</t>
+  </si>
+  <si>
+    <t>R$ 190.000</t>
+  </si>
+  <si>
+    <t>R$ 2.700.000</t>
+  </si>
+  <si>
+    <t>R$ 135.000</t>
+  </si>
+  <si>
+    <t>R$ 520.000</t>
+  </si>
+  <si>
+    <t>IPTU R$ 45</t>
+  </si>
+  <si>
+    <t>R$ 105.000</t>
+  </si>
+  <si>
+    <t>A casa está localizado no bairro jardim esperança com 120 metros quadrados com 2 quartos sendo 1 suite, 1 banheiro social, copa cozinha varanda, garagem coberta, área de serviço e...</t>
+  </si>
+  <si>
+    <t>R$ 280.000</t>
+  </si>
+  <si>
+    <t>Casa Duplex localizada no Verão Vermelho 2 !!</t>
+  </si>
+  <si>
+    <t>Excelente Casa na Região Dos Lagos.</t>
+  </si>
+  <si>
+    <t>R$ 220.000</t>
+  </si>
+  <si>
+    <t>R$ 130.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 151</t>
+  </si>
+  <si>
+    <t>R$ 360.000</t>
+  </si>
+  <si>
+    <t>IPTU R$ 100</t>
+  </si>
+  <si>
+    <t>A casa de condomínio no bairro Verão Vermelho (Tamoios) possui 600 metros quadrados com 4 quartos sendo 2 suites e 4 banheiros</t>
+  </si>
+  <si>
+    <t>IPTU R$ 400</t>
+  </si>
+  <si>
+    <t>Sua oportunidade de morar na região dos Lago está na aqui IMOBILIÁRIA CONFIANÇA.</t>
+  </si>
+  <si>
+    <t>Casa duplex nova independente frontal, posicionada para o nascer do sol, a 1 km da praia do Peró, próximo a farmácia, mercado, padaria, salão de beleza e restaurantes.</t>
+  </si>
+  <si>
+    <t>R$ 300.000</t>
+  </si>
+  <si>
+    <t>R$ 157.000</t>
+  </si>
+  <si>
+    <t>Lojas recém entregues no Ed. Facilitá Camburi no coração de Jardim Camburi. Ao lado do Shopping Norte S...</t>
+  </si>
+  <si>
+    <t>IPTU R$ 5.458</t>
+  </si>
+  <si>
+    <t>Realize o sonho da sua casa da praia com a Jéssica Marques Corretora de Imóveis</t>
+  </si>
+  <si>
+    <t>condomínioR$ 700 IPTU R$ 300</t>
+  </si>
+  <si>
+    <t>oportunidade , 2 casas a venda no mesmo quintal , com 290 m2 de terreno com espaço pra garagem ate 4 carros! piscina de plástico podendo ser feita uma área gourmet com churrasqueir...</t>
+  </si>
+  <si>
+    <t>Realize o Seu sonho da Sua Casa de Praia 🔑🏠🏖️</t>
   </si>
   <si>
     <t>mais</t>
   </si>
   <si>
-    <t>R$ 82.000</t>
-  </si>
-  <si>
-    <t>R$ 250.000</t>
-  </si>
-  <si>
-    <t>R$ 74.000</t>
-  </si>
-  <si>
-    <t>R$ 540.000</t>
-  </si>
-  <si>
-    <t>R$ 45.000</t>
-  </si>
-  <si>
-    <t>R$ 365.000</t>
-  </si>
-  <si>
-    <t>R$ 135.000</t>
-  </si>
-  <si>
-    <t>R$ 300.000</t>
-  </si>
-  <si>
-    <t>R$ 330.000</t>
-  </si>
-  <si>
-    <t>R$ 1.650.000</t>
-  </si>
-  <si>
-    <t>R$ 190.000</t>
-  </si>
-  <si>
-    <t>R$ 289.999</t>
-  </si>
-  <si>
-    <t>R$ 282.999</t>
-  </si>
-  <si>
-    <t>R$ 259.999</t>
-  </si>
-  <si>
-    <t>Rizzi Imóveis vende :</t>
-  </si>
-  <si>
-    <t>R$ 320.000</t>
-  </si>
-  <si>
-    <t>R$ 410.000</t>
-  </si>
-  <si>
-    <t>R$ 1.050.000</t>
-  </si>
-  <si>
-    <t>R$ 440.000</t>
-  </si>
-  <si>
-    <t>R$ 160.000</t>
-  </si>
-  <si>
-    <t>Avenida Governador Eurico Rezende, Jardim Camburi</t>
-  </si>
-  <si>
-    <t>Linda casa de 1 quarto com área gourmet em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>A casa no bairro Aquarius (Tamoios) possui 60 metros quadrados com 2 quartos sendo 1 suite banheiro social sala cozinha americana área de serviço varanda área gourmet lavabo chuvei...</t>
-  </si>
-  <si>
-    <t>Linda casa de 1 quarto, Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>condomínio R$ 831</t>
-  </si>
-  <si>
-    <t>condomínio R$ 120 IPTU R$ 40</t>
-  </si>
-  <si>
-    <t>condomínio R$ 480 IPTU R$ 700</t>
-  </si>
-  <si>
-    <t>Olá Cliente Tudo Bem ? Me chamo MARIANA sou atendente da imobiliária confiança e estou aqui para apresenta alguma das nossa opções de imóvel na região dos lagos - Cabo Frio/RJ.</t>
-  </si>
-  <si>
-    <t>Imóvel em Unamar - Cabo Frio/Rj</t>
-  </si>
-  <si>
-    <t>Excelente casa composta por 3 quartos à beira mar em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>IPTU R$ 2.030</t>
-  </si>
-  <si>
-    <t>Realize o sonho da sua casa da praia com a Jéssica Marques Corretora de Imóveis</t>
-  </si>
-  <si>
-    <t>Excelente casa composta por 3 quartos em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>Linda casa pronta para morar com 3 quartos, piscina e área gourmet em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>Excelente casa com 3 quartos e Piscina em Unamar - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>A casa possui 2 quartos sendo uma suíte no segundo andar com varanda, uma excelente área gourmet para você sua família e seus amigos, Um quarto térreo, Uma...</t>
-  </si>
-  <si>
-    <t>CÓDIGO DO ANÚNCIO : CA0133</t>
-  </si>
-  <si>
-    <t>M.CARVALHO IMOVEIS VENDE EXCELENTE OPORTUNIDADE IMOVEL ESPETACULAR, COM TERRENO GIGANTE E TODA MOBILIADA, OTIMA A LOCALIZAÇÃO A 5 MINUTOS DA PRAIA E DO CENTRO COMERCIAL DE AQUARIOS...</t>
-  </si>
-  <si>
-    <t>CÓDIGO DO ANÚNCIO : CA0117</t>
-  </si>
-  <si>
-    <t>condomínio R$ 600 IPTU R$ 800</t>
-  </si>
-  <si>
-    <t>condomínio R$ 623</t>
-  </si>
-  <si>
-    <t>49 m²</t>
-  </si>
-  <si>
-    <t>O apartamento no bairro Centro tem 75 metros quadrados com 2 quartos com varanda sendo 1 suite e 2 banheiros , próximos a bela Praia do Forte e de todo o conforto do comércio , fei...</t>
-  </si>
-  <si>
-    <t>Valor de R$ 45.000,00 é a Entrada. Favor ler o anuncio todo.</t>
-  </si>
-  <si>
-    <t>Apartamento extremamente bem localizado, reformado, com varanda, último andar do edifício com direito a integração de varanda com a sala e possível pleito de construção de cobertur...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>A casa está localizado no bairro Novo Portinho possui 270 metros quadrados com 4 quartos sendo 4 suites e 7 banheiros</t>
+    <t>CA 3087</t>
+  </si>
+  <si>
+    <t>com 366 m2 de Área do Terreno, 270 m2 de Área Construída toda com piso, laje, com 3 Quartos amplos sendo 1 suíte, 1 Sala de estar,...</t>
+  </si>
+  <si>
+    <t>IPTU R$ 240</t>
+  </si>
+  <si>
+    <t>Ótima casa em Unamar Cabo Frio, fica a 20minutos a pé da praia, casa duplex, em baixo: sala, quarto, cozinha e bainheiro, em cima: ampla suíte e varanda, com varanda na frente e na...</t>
+  </si>
+  <si>
+    <t>Lindo Duplex 3 quartos sendo 2 suítes em Unamar, Tamoios - Cabo Frio - RJ</t>
+  </si>
+  <si>
+    <t>condomínioR$ 570 IPTU R$ 600</t>
+  </si>
+  <si>
+    <t>Linda casa com 3 quartos, piscina e área gourmet em Unamar, Tamoios - Cabo Frio - RJ</t>
+  </si>
+  <si>
+    <t>Excelente imóvel, com 3 quartos, sendo 2 suítes, sala ampla e cozinha americana linda e planejada para você, 4 banheiros, quintal grande e com área verde, área para churrasqueira c...</t>
+  </si>
+  <si>
+    <t>Vai lhe possibilitar todo o conforto do ar condici...</t>
+  </si>
+  <si>
+    <t>A casa está localizado no bairro Samburá (Tamoios) tem 140 metros quadrados com 3 quartos e 2 banheiros, vaga para 2 carros e chuveirao. (imóvel vai ser entregue todo reformado , e...</t>
+  </si>
+  <si>
+    <t>DUAS CASAS LINDAS NO MESMO TERRENO PERTINHO DA PRAIA.............................</t>
+  </si>
+  <si>
+    <t>IPTU R$ 10</t>
+  </si>
+  <si>
+    <t>Hoje irei falar de OPORTUNIDADE!</t>
   </si>
   <si>
     <t>CRECI/RJ: 075.292</t>
   </si>
   <si>
-    <t>contem ainda uma suite de serviço.</t>
-  </si>
-  <si>
-    <t>Casa em condomínio fechado no Braga com: 2 Quartos sendo 1 Suíte- Sala- Cozinha- Banheiro Social- Área de Serviço- Varanda- 2 Vagas de Garagem coberta.</t>
+    <t>Lindo sala dois quartos com suíte adaptada no centro de Cabo Frio, composto de varanda, sala, cozinha, área de serviço , quarto e suíte, uma vaga de garagem e um lance de escada.</t>
+  </si>
+  <si>
+    <t>Rua Durval Lebre, Jardim Esperanca</t>
+  </si>
+  <si>
+    <t>CASA PRONTA PARA MORAR NO VALOR DE R$ 180 MIL.</t>
+  </si>
+  <si>
+    <t>Casa independente, com RGI, direto com proprietário!</t>
+  </si>
+  <si>
+    <t>A casa no bairro Peró com 68 metros quadrados com 2 quartos sendo 2 suites e 1 banheiro</t>
+  </si>
+  <si>
+    <t>Com...</t>
+  </si>
+  <si>
+    <t>Casa em dois pavimentos.</t>
+  </si>
+  <si>
+    <t>Rua Theófilo Costa, Jardim Camburi</t>
+  </si>
+  <si>
+    <t>Estrada Monte Alegre, Monte Alegre</t>
+  </si>
+  <si>
+    <t>Cresci RJ-008451/O</t>
+  </si>
+  <si>
+    <t>100 m²</t>
+  </si>
+  <si>
+    <t>Sua oportunidade de morar na região dos Lagos está esperando o quê? Venha realizar seu sonho.</t>
+  </si>
+  <si>
+    <t>Unamar, Cabo Frio</t>
+  </si>
+  <si>
+    <t>Aceita financiamento bancário!</t>
+  </si>
+  <si>
+    <t>Rua Guiomar Novaes, Unamar</t>
+  </si>
+  <si>
+    <t>Realize o sonho da casa própria com Fernanda Queiroz Corretora de Imóveis</t>
+  </si>
+  <si>
+    <t>Excelente casa em condomínio fechado com área de lazer.</t>
+  </si>
+  <si>
+    <t>Avenida Independência, Unamar</t>
+  </si>
+  <si>
+    <t>Verao Vermelho Tamoios, Cabo Frio</t>
+  </si>
+  <si>
+    <t>Avenida Independência, Sambura Tamoios</t>
+  </si>
+  <si>
+    <t>SUA OPORTUNIDADE CHEGOU. CASA BEM LOCALIZADA EM AQUARIOS, PEROXIMO DA PRAIA DO CORAL ,,,COM...</t>
+  </si>
+  <si>
+    <t>Primeiro pavimento:</t>
+  </si>
+  <si>
+    <t>54 - 84 m²</t>
+  </si>
+  <si>
+    <t>Completamente independente e projetada para o canal mais cobiçado de Cabo Frio, essa casa tem motivo de sobra para ser a sua nova aquisição...</t>
+  </si>
+  <si>
+    <t>Cód: JMC-102-1</t>
+  </si>
+  <si>
+    <t>Rua José Bonifácio, Centro</t>
+  </si>
+  <si>
+    <t>150 m²</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>Realize o sonho da casa própria com A.J. Sant?anna Corretor de Imóveis</t>
-  </si>
-  <si>
-    <t>Rua da Felicidade, Aquariús</t>
-  </si>
-  <si>
-    <t>Código: CA0149</t>
-  </si>
-  <si>
-    <t>Realize o sonho da sua casa da praia com a Jéssica Marques Corretora d...</t>
-  </si>
-  <si>
-    <t>Rua da Assembléia, Jardim Esperanca</t>
-  </si>
-  <si>
-    <t>IMOBILIÁRIA MAGDALA FURTADO VENDE:</t>
-  </si>
-  <si>
-    <t>Avenida Independência, Unamar</t>
-  </si>
-  <si>
-    <t>Aceita Financiamento Bancário</t>
-  </si>
-  <si>
-    <t>Rua Tulipas, Algodoal</t>
-  </si>
-  <si>
-    <t>Condomínio com Piscina- S...</t>
+    <t>70 m²</t>
+  </si>
+  <si>
+    <t>Composta Por : 2 quartos sendo 1 suíte</t>
+  </si>
+  <si>
+    <t>A casa possui 2 quartos (1suíte), sala, cozinha americana, 2 banheiros, área de serviço,...</t>
+  </si>
+  <si>
+    <t>96 m²</t>
+  </si>
+  <si>
+    <t>CRECI/RJ: 01 074.981</t>
+  </si>
+  <si>
+    <t>Localizada no Caminho Verde c...</t>
+  </si>
+  <si>
+    <t>CRECI...</t>
+  </si>
+  <si>
+    <t>300 m²</t>
+  </si>
+  <si>
+    <t>360 m²</t>
+  </si>
+  <si>
+    <t>140 m²</t>
+  </si>
+  <si>
+    <t>Linda Casa em Tamoios 2⁰ Distrito de Cabo Frio &lt;...</t>
+  </si>
+  <si>
+    <t>Travessa Cajarana, Cajueiro</t>
+  </si>
+  <si>
+    <t>Sala, cozinha, banheiro, área de serviço, área gourmet e garagem para 3 carros.</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>CRECI/RJ: 01 074.516</t>
+    <t>55 m²</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Ótima Oportunidade pra você adquirir seu Imóvel Novo, com uma condição especial !</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO</t>
+  </si>
+  <si>
+    <t>Sala</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>120 m²</t>
+  </si>
+  <si>
+    <t>Segundo pavimento:</t>
+  </si>
+  <si>
+    <t>Ogiva, Cabo Frio</t>
+  </si>
+  <si>
+    <t>CASA COM 2 QUARTO, SENDO 1 SUÍTE, SALA COM COZINHA...</t>
+  </si>
+  <si>
+    <t>Cozinha americana</t>
+  </si>
+  <si>
+    <t>Rua do Guriri, Peró</t>
+  </si>
+  <si>
+    <t>Avenida dos Pescadores, Peró</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Rua das Pacas, Nova California Tamoios</t>
+  </si>
+  <si>
+    <t>3 quartos; 1 suíte com...</t>
+  </si>
+  <si>
+    <t>500 m²</t>
+  </si>
+  <si>
+    <t>Casa pos...</t>
+  </si>
+  <si>
+    <t>- 03 quartos</t>
+  </si>
+  <si>
+    <t>Banheiro so...</t>
+  </si>
+  <si>
+    <t>68 m²</t>
+  </si>
+  <si>
+    <t>200 m²</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>- Suíte</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Travessa Capivara, Unamar</t>
+  </si>
+  <si>
+    <t>64 m²</t>
+  </si>
+  <si>
+    <t>Sambura Tamoios, Cabo Frio</t>
+  </si>
+  <si>
+    <t>- Sala</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>60 m²</t>
   </si>
   <si>
-    <t>Rua Jorge Lossio, Centro</t>
-  </si>
-  <si>
-    <t>Cabo Frio. Unamar. Condomínio Verão Vermelho. Excelente Casa em condomínio fechado em área residencial de Unamar...</t>
-  </si>
-  <si>
-    <t>Rua Ministro Gama Filho, Braga</t>
-  </si>
-  <si>
-    <t>Avenida das Rosas, Nova California Tamoios</t>
-  </si>
-  <si>
-    <t>CREC...</t>
-  </si>
-  <si>
-    <t>Rua Sapoti, Novo Portinho</t>
-  </si>
-  <si>
-    <t>Cód: JMC-018-2</t>
-  </si>
-  <si>
-    <t>CRECI/RJ: 075.29...</t>
-  </si>
-  <si>
-    <t>120 m²</t>
-  </si>
-  <si>
-    <t>180 m²</t>
-  </si>
-  <si>
-    <t>Cód: JMC-035-4</t>
-  </si>
-  <si>
-    <t>75 m²</t>
-  </si>
-  <si>
-    <t>50 m²</t>
-  </si>
-  <si>
-    <t>Casa composta por 1 sala, 3 quartos sendo 1 suíte, 1 cozinha, 3 banheiros e garagem com vaga para 4 carros.</t>
-  </si>
-  <si>
-    <t>270 m²</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Casa com 3 quartos, sendo 1 suíte, sala, cozinha, 4 banheiros, área de serviço, área gourmet, piscina, c...</t>
-  </si>
-  <si>
-    <t>Braga, Cabo Frio</t>
-  </si>
-  <si>
-    <t>Unamar, Cabo Frio</t>
-  </si>
-  <si>
-    <t>Cód: AJC-009</t>
-  </si>
-  <si>
-    <t>Rua Apolo Dois, Verao Vermelho Tamoios</t>
-  </si>
-  <si>
-    <t>Agende...</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>CASA DE 2 QUARTOS SENDO UMA SUÍTE SALA COZINHA AME...</t>
-  </si>
-  <si>
-    <t>121 m²</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>90 m²</t>
-  </si>
-  <si>
-    <t>CASA COM 2 QUARTOS SENDO 1 SUÍTE, SALA COM COZINHA...</t>
-  </si>
-  <si>
-    <t>171 m²</t>
-  </si>
-  <si>
-    <t>219 m²</t>
-  </si>
-  <si>
-    <t>Verao Vermelho Tamoios, Cabo Frio</t>
-  </si>
-  <si>
-    <t>Casa com 3 quartos, sendo 1 suíte com closet, 2 salas, sala externa...</t>
-  </si>
-  <si>
-    <t>Rua Estrela Dalva, Sambura Tamoios</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>200 m²</t>
-  </si>
-  <si>
-    <t>35 m²</t>
-  </si>
-  <si>
-    <t>124 m²</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>71 m²</t>
-  </si>
-  <si>
-    <t>632 m²</t>
+    <t>- Cozinha...</t>
+  </si>
+  <si>
+    <t>115 m²</t>
   </si>
 </sst>
 </file>
@@ -701,13 +764,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -756,868 +819,883 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
       <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>97</v>
+      </c>
+      <c r="J2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>57</v>
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K3" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="L3" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="M3" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" t="s">
+        <v>124</v>
+      </c>
+      <c r="N4" t="s">
+        <v>83</v>
+      </c>
+      <c r="O4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>68</v>
+        <v>81</v>
+      </c>
+      <c r="I5" t="s">
+        <v>98</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" t="s">
-        <v>105</v>
-      </c>
-      <c r="N5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O5" t="s">
-        <v>67</v>
-      </c>
-      <c r="P5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="K6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" t="s">
-        <v>71</v>
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="L7" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="M7" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="N7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>128</v>
+      </c>
+      <c r="O7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K8" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="L9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>121</v>
+      </c>
+      <c r="M9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N9" t="s">
+        <v>129</v>
+      </c>
+      <c r="O9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>130</v>
+      </c>
+      <c r="R9" t="s">
+        <v>99</v>
+      </c>
+      <c r="S9" t="s">
+        <v>99</v>
+      </c>
+      <c r="T9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>68</v>
+      </c>
+      <c r="H10" t="s">
+        <v>84</v>
       </c>
       <c r="I10" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="K10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" t="s">
-        <v>102</v>
-      </c>
-      <c r="M10" t="s">
-        <v>106</v>
-      </c>
-      <c r="N10" t="s">
-        <v>85</v>
-      </c>
-      <c r="O10" t="s">
-        <v>92</v>
-      </c>
-      <c r="P10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I11" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="J11" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="M11" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="N11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>84</v>
+      </c>
+      <c r="O11" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
         <v>84</v>
       </c>
-      <c r="J12" t="s">
-        <v>92</v>
-      </c>
-      <c r="K12" t="s">
-        <v>92</v>
-      </c>
       <c r="L12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>83</v>
+      </c>
+      <c r="M12" t="s">
+        <v>83</v>
+      </c>
+      <c r="N12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+      <c r="I13" t="s">
+        <v>83</v>
       </c>
       <c r="J13" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" t="s">
-        <v>63</v>
-      </c>
-      <c r="M13" t="s">
-        <v>108</v>
-      </c>
-      <c r="N13" t="s">
-        <v>56</v>
-      </c>
-      <c r="O13" t="s">
-        <v>85</v>
-      </c>
-      <c r="P13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I14" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="J14" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="K14" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="L14" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="M14" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="N14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="I15" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="J15" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="K15" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="L15" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="M15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>97</v>
+      </c>
+      <c r="N15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
         <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="I16" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="J16" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="K16" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="L16" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="M16" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="N16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I17" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="J17" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>62</v>
+        <v>74</v>
+      </c>
+      <c r="H18" t="s">
+        <v>92</v>
       </c>
       <c r="I18" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="J18" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="K18" t="s">
-        <v>100</v>
-      </c>
-      <c r="L18" t="s">
-        <v>104</v>
-      </c>
-      <c r="M18" t="s">
-        <v>85</v>
-      </c>
-      <c r="N18" t="s">
-        <v>85</v>
-      </c>
-      <c r="O18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="H19" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I19" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="J19" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" t="s">
-        <v>64</v>
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" t="s">
+        <v>94</v>
       </c>
       <c r="I20" t="s">
-        <v>62</v>
+        <v>41</v>
+      </c>
+      <c r="J20" t="s">
+        <v>112</v>
       </c>
       <c r="K20" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="L20" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="M20" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="N20" t="s">
-        <v>109</v>
-      </c>
-      <c r="O20" t="s">
-        <v>85</v>
-      </c>
-      <c r="P20" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G21" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="H21" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="I21" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="J21" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="K21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>83</v>
+      </c>
+      <c r="L21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G22" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="I22" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="J22" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K22" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="L22" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="M22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="G23" t="s">
+        <v>77</v>
       </c>
       <c r="H23" t="s">
-        <v>80</v>
+        <v>96</v>
+      </c>
+      <c r="I23" t="s">
+        <v>105</v>
       </c>
       <c r="J23" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="K23" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="L23" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="M23" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="N23" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="O23" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
